--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H2">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I2">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J2">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>5.345283044074501</v>
+        <v>2.8441802332625</v>
       </c>
       <c r="R2">
-        <v>21.381132176298</v>
+        <v>11.37672093305</v>
       </c>
       <c r="S2">
-        <v>0.01215930825946322</v>
+        <v>0.008320870674634545</v>
       </c>
       <c r="T2">
-        <v>0.006198483292401654</v>
+        <v>0.004272350574897302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H3">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I3">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J3">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>8.095442291967668</v>
+        <v>3.489997691533833</v>
       </c>
       <c r="R3">
-        <v>48.57265375180601</v>
+        <v>20.939986149203</v>
       </c>
       <c r="S3">
-        <v>0.01841529765834386</v>
+        <v>0.01021025992178954</v>
       </c>
       <c r="T3">
-        <v>0.01408142376491821</v>
+        <v>0.007863686064672129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H4">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I4">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J4">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>7.258986202152</v>
+        <v>1.7872876836155</v>
       </c>
       <c r="R4">
-        <v>43.553917212912</v>
+        <v>10.723726101693</v>
       </c>
       <c r="S4">
-        <v>0.01651254950493247</v>
+        <v>0.005228849247950998</v>
       </c>
       <c r="T4">
-        <v>0.01262647019516358</v>
+        <v>0.004027128523695495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H5">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I5">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J5">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>6.611953877842001</v>
+        <v>2.26029322597375</v>
       </c>
       <c r="R5">
-        <v>26.447815511368</v>
+        <v>9.041172903894999</v>
       </c>
       <c r="S5">
-        <v>0.01504069751500956</v>
+        <v>0.006612663782740052</v>
       </c>
       <c r="T5">
-        <v>0.007667336847085537</v>
+        <v>0.003395271843355846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H6">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I6">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J6">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>4.005236511070001</v>
+        <v>1.254494183721167</v>
       </c>
       <c r="R6">
-        <v>24.03141906642</v>
+        <v>7.526965102327001</v>
       </c>
       <c r="S6">
-        <v>0.00911100590718846</v>
+        <v>0.003670120389259329</v>
       </c>
       <c r="T6">
-        <v>0.006966812998847382</v>
+        <v>0.002826634657859842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H7">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I7">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J7">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>8.007293994214667</v>
+        <v>2.252209734872167</v>
       </c>
       <c r="R7">
-        <v>48.043763965288</v>
+        <v>13.513258409233</v>
       </c>
       <c r="S7">
-        <v>0.01821478024587234</v>
+        <v>0.006589014900271491</v>
       </c>
       <c r="T7">
-        <v>0.01392809631348942</v>
+        <v>0.005074693988995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J8">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N8">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O8">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P8">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q8">
-        <v>54.4095027690345</v>
+        <v>67.154729711025</v>
       </c>
       <c r="R8">
-        <v>326.457016614207</v>
+        <v>402.92837826615</v>
       </c>
       <c r="S8">
-        <v>0.1237692954625112</v>
+        <v>0.1964663893590546</v>
       </c>
       <c r="T8">
-        <v>0.09464131022087031</v>
+        <v>0.1513134846726277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J9">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
         <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P9">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q9">
-        <v>82.40330515138101</v>
+        <v>82.40330515138099</v>
       </c>
       <c r="R9">
-        <v>741.629746362429</v>
+        <v>741.6297463624289</v>
       </c>
       <c r="S9">
-        <v>0.1874488554998005</v>
+        <v>0.2410772838191669</v>
       </c>
       <c r="T9">
-        <v>0.2150016918688507</v>
+        <v>0.2785075147644512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J10">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N10">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O10">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P10">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q10">
-        <v>73.889039478312</v>
+        <v>42.20014607561099</v>
       </c>
       <c r="R10">
-        <v>665.0013553048079</v>
+        <v>379.801314680499</v>
       </c>
       <c r="S10">
-        <v>0.1680808295097498</v>
+        <v>0.1234598123702794</v>
       </c>
       <c r="T10">
-        <v>0.1927867877291708</v>
+        <v>0.1426284756979588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J11">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N11">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O11">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P11">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q11">
-        <v>67.30291358920201</v>
+        <v>53.36841135549749</v>
       </c>
       <c r="R11">
-        <v>403.817481535212</v>
+        <v>320.210468132985</v>
       </c>
       <c r="S11">
-        <v>0.1530988848192633</v>
+        <v>0.1561334418284762</v>
       </c>
       <c r="T11">
-        <v>0.1170684457603457</v>
+        <v>0.1202500602473098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J12">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N12">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O12">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P12">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q12">
-        <v>40.76920253667</v>
+        <v>29.620210718929</v>
       </c>
       <c r="R12">
-        <v>366.92282283003</v>
+        <v>266.581896470361</v>
       </c>
       <c r="S12">
-        <v>0.09274070185776133</v>
+        <v>0.08665623221244183</v>
       </c>
       <c r="T12">
-        <v>0.1063725235950804</v>
+        <v>0.1001106843830283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J13">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N13">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O13">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P13">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q13">
-        <v>81.50604582738799</v>
+        <v>53.17754980119101</v>
       </c>
       <c r="R13">
-        <v>733.5544124464919</v>
+        <v>478.597948210719</v>
       </c>
       <c r="S13">
-        <v>0.185407793760104</v>
+        <v>0.1555750614939352</v>
       </c>
       <c r="T13">
-        <v>0.2126606174137763</v>
+        <v>0.1797300145811486</v>
       </c>
     </row>
   </sheetData>
